--- a/대학 엑셀 파일/부경.xlsx
+++ b/대학 엑셀 파일/부경.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
   <si>
     <t>글로벌자율전공학부(인문·사회계)</t>
   </si>
@@ -187,6 +187,50 @@
   </si>
   <si>
     <t>컴퓨터·인공지능공학부(컴퓨터공학전공·인공지능전공)</t>
+  </si>
+  <si>
+    <t>학과</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>모집인원</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>지원인원</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>경쟁률</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>최종추합번호</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>최고등급</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>평균등급</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>(80%)등급</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>최고환산점수</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>(80%)환산점수</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>평균환산점수</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1104,355 +1148,309 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M56"/>
+  <dimension ref="A1:K57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1:K1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
+      <c r="B2">
         <v>12</v>
       </c>
-      <c r="C1">
+      <c r="C2">
         <v>85</v>
       </c>
-      <c r="D1">
+      <c r="D2">
         <v>7.08</v>
       </c>
-      <c r="E1">
+      <c r="E2">
         <v>19</v>
       </c>
-      <c r="F1">
+      <c r="F2">
         <v>2.21</v>
       </c>
-      <c r="G1">
+      <c r="G2">
         <v>2.73</v>
       </c>
-      <c r="H1">
-        <v>2.74</v>
-      </c>
-      <c r="I1">
+      <c r="H2">
         <v>2.95</v>
       </c>
-      <c r="J1">
+      <c r="I2">
         <v>993.9</v>
       </c>
-      <c r="K1">
+      <c r="J2">
         <v>991.31</v>
       </c>
-      <c r="L1">
-        <v>991.27</v>
-      </c>
-      <c r="M1">
+      <c r="K2">
         <v>990.21</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B3">
         <v>7</v>
       </c>
-      <c r="C2">
+      <c r="C3">
         <v>61</v>
       </c>
-      <c r="D2">
+      <c r="D3">
         <v>8.7100000000000009</v>
       </c>
-      <c r="E2">
+      <c r="E3">
         <v>7</v>
       </c>
-      <c r="F2">
+      <c r="F3">
         <v>2.35</v>
       </c>
-      <c r="G2">
+      <c r="G3">
         <v>2.68</v>
       </c>
-      <c r="H2">
-        <v>2.73</v>
-      </c>
-      <c r="I2">
+      <c r="H3">
         <v>2.9</v>
       </c>
-      <c r="J2">
+      <c r="I3">
         <v>993.23</v>
       </c>
-      <c r="K2">
+      <c r="J3">
         <v>991.56</v>
       </c>
-      <c r="L2">
-        <v>991.32</v>
-      </c>
-      <c r="M2">
+      <c r="K3">
         <v>990.48</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="B4">
         <v>11</v>
       </c>
-      <c r="C3">
+      <c r="C4">
         <v>108</v>
       </c>
-      <c r="D3">
+      <c r="D4">
         <v>9.82</v>
       </c>
-      <c r="E3">
+      <c r="E4">
         <v>17</v>
-      </c>
-      <c r="F3">
-        <v>2</v>
-      </c>
-      <c r="G3">
-        <v>2.72</v>
-      </c>
-      <c r="H3">
-        <v>3.05</v>
-      </c>
-      <c r="I3">
-        <v>3.26</v>
-      </c>
-      <c r="J3">
-        <v>991.78</v>
-      </c>
-      <c r="K3">
-        <v>988.62</v>
-      </c>
-      <c r="L3">
-        <v>989</v>
-      </c>
-      <c r="M3">
-        <v>987.4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>26</v>
-      </c>
-      <c r="C4">
-        <v>178</v>
-      </c>
-      <c r="D4">
-        <v>6.85</v>
-      </c>
-      <c r="E4">
-        <v>39</v>
       </c>
       <c r="F4">
         <v>2</v>
       </c>
       <c r="G4">
-        <v>2.88</v>
+        <v>2.72</v>
       </c>
       <c r="H4">
-        <v>3.02</v>
+        <v>3.26</v>
       </c>
       <c r="I4">
-        <v>3.22</v>
+        <v>991.78</v>
       </c>
       <c r="J4">
-        <v>992.54</v>
+        <v>988.62</v>
       </c>
       <c r="K4">
-        <v>989.09</v>
-      </c>
-      <c r="L4">
-        <v>989.16</v>
-      </c>
-      <c r="M4">
-        <v>987.64</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
+        <v>987.4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C5">
-        <v>228</v>
+        <v>178</v>
       </c>
       <c r="D5">
-        <v>8.44</v>
+        <v>6.85</v>
       </c>
       <c r="E5">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="F5">
         <v>2</v>
       </c>
       <c r="G5">
-        <v>3.07</v>
+        <v>2.88</v>
       </c>
       <c r="H5">
-        <v>3.19</v>
+        <v>3.22</v>
       </c>
       <c r="I5">
-        <v>3.43</v>
+        <v>992.54</v>
       </c>
       <c r="J5">
-        <v>991.9</v>
+        <v>989.09</v>
       </c>
       <c r="K5">
-        <v>987.55</v>
-      </c>
-      <c r="L5">
-        <v>987.4</v>
-      </c>
-      <c r="M5">
-        <v>985.6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
+        <v>987.64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="C6">
-        <v>559</v>
+        <v>228</v>
       </c>
       <c r="D6">
-        <v>50.82</v>
+        <v>8.44</v>
       </c>
       <c r="E6">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F6">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="G6">
         <v>3.07</v>
       </c>
       <c r="H6">
-        <v>3.1</v>
+        <v>3.43</v>
       </c>
       <c r="I6">
+        <v>991.9</v>
+      </c>
+      <c r="J6">
+        <v>987.55</v>
+      </c>
+      <c r="K6">
+        <v>985.6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>11</v>
+      </c>
+      <c r="C7">
+        <v>559</v>
+      </c>
+      <c r="D7">
+        <v>50.82</v>
+      </c>
+      <c r="E7">
+        <v>25</v>
+      </c>
+      <c r="F7">
+        <v>2.25</v>
+      </c>
+      <c r="G7">
+        <v>3.07</v>
+      </c>
+      <c r="H7">
         <v>3.34</v>
       </c>
-      <c r="J6">
+      <c r="I7">
         <v>992.12</v>
       </c>
-      <c r="K6">
+      <c r="J7">
         <v>988.14</v>
       </c>
-      <c r="L6">
-        <v>987.75</v>
-      </c>
-      <c r="M6">
+      <c r="K7">
         <v>986.51</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A7" t="s">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B7">
+      <c r="B8">
         <v>31</v>
       </c>
-      <c r="C7">
+      <c r="C8">
         <v>209</v>
       </c>
-      <c r="D7">
+      <c r="D8">
         <v>6.74</v>
       </c>
-      <c r="E7">
+      <c r="E8">
         <v>42</v>
       </c>
-      <c r="F7">
+      <c r="F8">
         <v>1.86</v>
       </c>
-      <c r="G7">
+      <c r="G8">
         <v>2.78</v>
       </c>
-      <c r="H7">
-        <v>2.89</v>
-      </c>
-      <c r="I7">
+      <c r="H8">
         <v>2.99</v>
       </c>
-      <c r="J7">
+      <c r="I8">
         <v>995.69</v>
       </c>
-      <c r="K7">
+      <c r="J8">
         <v>990.97</v>
       </c>
-      <c r="L7">
-        <v>990.54</v>
-      </c>
-      <c r="M7">
+      <c r="K8">
         <v>990</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A8" t="s">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
         <v>7</v>
       </c>
-      <c r="B8">
+      <c r="B9">
         <v>22</v>
       </c>
-      <c r="C8">
+      <c r="C9">
         <v>151</v>
       </c>
-      <c r="D8">
+      <c r="D9">
         <v>6.86</v>
       </c>
-      <c r="E8">
+      <c r="E9">
         <v>34</v>
-      </c>
-      <c r="F8">
-        <v>2</v>
-      </c>
-      <c r="G8">
-        <v>2.65</v>
-      </c>
-      <c r="H8">
-        <v>2.81</v>
-      </c>
-      <c r="I8">
-        <v>2.98</v>
-      </c>
-      <c r="J8">
-        <v>993.26</v>
-      </c>
-      <c r="K8">
-        <v>990.46</v>
-      </c>
-      <c r="L8">
-        <v>990.22</v>
-      </c>
-      <c r="M8">
-        <v>989.21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>26</v>
-      </c>
-      <c r="C9">
-        <v>167</v>
-      </c>
-      <c r="D9">
-        <v>6.42</v>
-      </c>
-      <c r="E9">
-        <v>41</v>
       </c>
       <c r="F9">
         <v>2</v>
@@ -1461,1344 +1459,1152 @@
         <v>2.65</v>
       </c>
       <c r="H9">
-        <v>2.68</v>
+        <v>2.98</v>
       </c>
       <c r="I9">
-        <v>2.93</v>
+        <v>993.26</v>
       </c>
       <c r="J9">
-        <v>994.44</v>
+        <v>990.46</v>
       </c>
       <c r="K9">
-        <v>991.11</v>
-      </c>
-      <c r="L9">
-        <v>991.04</v>
-      </c>
-      <c r="M9">
-        <v>989.93</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.4">
+        <v>989.21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C10">
-        <v>244</v>
+        <v>167</v>
       </c>
       <c r="D10">
-        <v>8.41</v>
+        <v>6.42</v>
       </c>
       <c r="E10">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F10">
         <v>2</v>
       </c>
       <c r="G10">
-        <v>2.84</v>
+        <v>2.65</v>
       </c>
       <c r="H10">
-        <v>2.95</v>
+        <v>2.93</v>
       </c>
       <c r="I10">
-        <v>3.12</v>
+        <v>994.44</v>
       </c>
       <c r="J10">
-        <v>991.5</v>
+        <v>991.11</v>
       </c>
       <c r="K10">
-        <v>989.67</v>
-      </c>
-      <c r="L10">
-        <v>989.94</v>
-      </c>
-      <c r="M10">
-        <v>988.7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.4">
+        <v>989.93</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="C11">
-        <v>72</v>
+        <v>244</v>
       </c>
       <c r="D11">
-        <v>9</v>
+        <v>8.41</v>
       </c>
       <c r="E11">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="F11">
         <v>2</v>
       </c>
       <c r="G11">
+        <v>2.84</v>
+      </c>
+      <c r="H11">
+        <v>3.12</v>
+      </c>
+      <c r="I11">
+        <v>991.5</v>
+      </c>
+      <c r="J11">
+        <v>989.67</v>
+      </c>
+      <c r="K11">
+        <v>988.7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>8</v>
+      </c>
+      <c r="C12">
+        <v>72</v>
+      </c>
+      <c r="D12">
+        <v>9</v>
+      </c>
+      <c r="E12">
+        <v>14</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="G12">
         <v>3.23</v>
       </c>
-      <c r="H11">
-        <v>3.45</v>
-      </c>
-      <c r="I11">
+      <c r="H12">
         <v>3.59</v>
       </c>
-      <c r="J11">
+      <c r="I12">
         <v>990.63</v>
       </c>
-      <c r="K11">
+      <c r="J12">
         <v>986.15</v>
       </c>
-      <c r="L11">
-        <v>985.49</v>
-      </c>
-      <c r="M11">
+      <c r="K12">
         <v>984.09</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A12" t="s">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
         <v>11</v>
       </c>
-      <c r="B12">
+      <c r="B13">
         <v>7</v>
       </c>
-      <c r="C12">
+      <c r="C13">
         <v>48</v>
       </c>
-      <c r="D12">
+      <c r="D13">
         <v>6.86</v>
       </c>
-      <c r="E12">
+      <c r="E13">
         <v>12</v>
       </c>
-      <c r="F12">
+      <c r="F13">
         <v>2.2799999999999998</v>
       </c>
-      <c r="G12">
+      <c r="G13">
         <v>2.96</v>
       </c>
-      <c r="H12">
-        <v>3.07</v>
-      </c>
-      <c r="I12">
+      <c r="H13">
         <v>3.2</v>
       </c>
-      <c r="J12">
+      <c r="I13">
         <v>993.55</v>
       </c>
-      <c r="K12">
+      <c r="J13">
         <v>989.7</v>
       </c>
-      <c r="L12">
-        <v>989.2</v>
-      </c>
-      <c r="M12">
+      <c r="K13">
         <v>987.95</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A13" t="s">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
         <v>12</v>
       </c>
-      <c r="B13">
+      <c r="B14">
         <v>2</v>
       </c>
-      <c r="C13">
+      <c r="C14">
         <v>22</v>
       </c>
-      <c r="D13">
+      <c r="D14">
         <v>11</v>
       </c>
-      <c r="E13">
+      <c r="E14">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A14" t="s">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
         <v>13</v>
       </c>
-      <c r="B14">
+      <c r="B15">
         <v>12</v>
       </c>
-      <c r="C14">
+      <c r="C15">
         <v>178</v>
       </c>
-      <c r="D14">
+      <c r="D15">
         <v>14.83</v>
       </c>
-      <c r="E14">
+      <c r="E15">
         <v>18</v>
       </c>
-      <c r="F14">
+      <c r="F15">
         <v>2</v>
       </c>
-      <c r="G14">
+      <c r="G15">
         <v>2.88</v>
       </c>
-      <c r="H14">
-        <v>3.17</v>
-      </c>
-      <c r="I14">
+      <c r="H15">
         <v>3.32</v>
       </c>
-      <c r="J14">
+      <c r="I15">
         <v>989.8</v>
       </c>
-      <c r="K14">
+      <c r="J15">
         <v>988.13</v>
       </c>
-      <c r="L14">
-        <v>988.29</v>
-      </c>
-      <c r="M14">
+      <c r="K15">
         <v>986.77</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A15" t="s">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
         <v>14</v>
       </c>
-      <c r="B15">
+      <c r="B16">
         <v>16</v>
       </c>
-      <c r="C15">
+      <c r="C16">
         <v>419</v>
       </c>
-      <c r="D15">
+      <c r="D16">
         <v>26.19</v>
       </c>
-      <c r="E15">
+      <c r="E16">
         <v>27</v>
       </c>
-      <c r="F15">
+      <c r="F16">
         <v>2.25</v>
       </c>
-      <c r="G15">
+      <c r="G16">
         <v>3.1</v>
       </c>
-      <c r="H15">
-        <v>3.15</v>
-      </c>
-      <c r="I15">
+      <c r="H16">
         <v>3.27</v>
       </c>
-      <c r="J15">
+      <c r="I16">
         <v>990.35</v>
       </c>
-      <c r="K15">
+      <c r="J16">
         <v>988.22</v>
       </c>
-      <c r="L15">
-        <v>988.02</v>
-      </c>
-      <c r="M15">
+      <c r="K16">
         <v>987.2</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A16" t="s">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
         <v>15</v>
       </c>
-      <c r="B16">
+      <c r="B17">
         <v>14</v>
       </c>
-      <c r="C16">
+      <c r="C17">
         <v>59</v>
       </c>
-      <c r="D16">
+      <c r="D17">
         <v>4.21</v>
       </c>
-      <c r="E16">
+      <c r="E17">
         <v>15</v>
       </c>
-      <c r="F16">
+      <c r="F17">
         <v>2.4500000000000002</v>
       </c>
-      <c r="G16">
+      <c r="G17">
         <v>3.66</v>
       </c>
-      <c r="H16">
-        <v>3.69</v>
-      </c>
-      <c r="I16">
+      <c r="H17">
         <v>4.1900000000000004</v>
       </c>
-      <c r="J16">
+      <c r="I17">
         <v>992.72</v>
       </c>
-      <c r="K16">
+      <c r="J17">
         <v>983.08</v>
       </c>
-      <c r="L16">
-        <v>983.05</v>
-      </c>
-      <c r="M16">
+      <c r="K17">
         <v>978.07</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A17" t="s">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
         <v>16</v>
       </c>
-      <c r="B17">
+      <c r="B18">
         <v>18</v>
       </c>
-      <c r="C17">
+      <c r="C18">
         <v>148</v>
       </c>
-      <c r="D17">
+      <c r="D18">
         <v>8.2200000000000006</v>
       </c>
-      <c r="E17">
+      <c r="E18">
         <v>40</v>
       </c>
-      <c r="F17">
+      <c r="F18">
         <v>2.25</v>
       </c>
-      <c r="G17">
+      <c r="G18">
         <v>3.73</v>
       </c>
-      <c r="H17">
-        <v>3.85</v>
-      </c>
-      <c r="I17">
+      <c r="H18">
         <v>4</v>
       </c>
-      <c r="J17">
+      <c r="I18">
         <v>984.53</v>
       </c>
-      <c r="K17">
+      <c r="J18">
         <v>981.71</v>
       </c>
-      <c r="L17">
-        <v>981.45</v>
-      </c>
-      <c r="M17">
+      <c r="K18">
         <v>979.95</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A18" t="s">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
         <v>17</v>
       </c>
-      <c r="B18">
+      <c r="B19">
         <v>19</v>
       </c>
-      <c r="C18">
+      <c r="C19">
         <v>84</v>
       </c>
-      <c r="D18">
+      <c r="D19">
         <v>4.42</v>
       </c>
-      <c r="E18">
+      <c r="E19">
         <v>25</v>
-      </c>
-      <c r="F18">
-        <v>2</v>
-      </c>
-      <c r="G18">
-        <v>3.03</v>
-      </c>
-      <c r="H18">
-        <v>3.11</v>
-      </c>
-      <c r="I18">
-        <v>3.47</v>
-      </c>
-      <c r="J18">
-        <v>993.27</v>
-      </c>
-      <c r="K18">
-        <v>988.22</v>
-      </c>
-      <c r="L18">
-        <v>988.08</v>
-      </c>
-      <c r="M18">
-        <v>985.27</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A19" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19">
-        <v>14</v>
-      </c>
-      <c r="C19">
-        <v>77</v>
-      </c>
-      <c r="D19">
-        <v>5.5</v>
-      </c>
-      <c r="E19">
-        <v>18</v>
       </c>
       <c r="F19">
         <v>2</v>
       </c>
       <c r="G19">
+        <v>3.03</v>
+      </c>
+      <c r="H19">
+        <v>3.47</v>
+      </c>
+      <c r="I19">
+        <v>993.27</v>
+      </c>
+      <c r="J19">
+        <v>988.22</v>
+      </c>
+      <c r="K19">
+        <v>985.27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>14</v>
+      </c>
+      <c r="C20">
+        <v>77</v>
+      </c>
+      <c r="D20">
+        <v>5.5</v>
+      </c>
+      <c r="E20">
+        <v>18</v>
+      </c>
+      <c r="F20">
+        <v>2</v>
+      </c>
+      <c r="G20">
         <v>2.66</v>
       </c>
-      <c r="H19">
-        <v>2.76</v>
-      </c>
-      <c r="I19">
+      <c r="H20">
         <v>2.96</v>
       </c>
-      <c r="J19">
+      <c r="I20">
         <v>993.39</v>
       </c>
-      <c r="K19">
+      <c r="J20">
         <v>990.66</v>
       </c>
-      <c r="L19">
-        <v>990.77</v>
-      </c>
-      <c r="M19">
+      <c r="K20">
         <v>989.27</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A20" t="s">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A21" t="s">
         <v>19</v>
       </c>
-      <c r="B20">
+      <c r="B21">
         <v>20</v>
       </c>
-      <c r="C20">
+      <c r="C21">
         <v>184</v>
       </c>
-      <c r="D20">
+      <c r="D21">
         <v>9.1999999999999993</v>
       </c>
-      <c r="E20">
+      <c r="E21">
         <v>56</v>
       </c>
-      <c r="F20">
+      <c r="F21">
         <v>1.46</v>
       </c>
-      <c r="G20">
+      <c r="G21">
         <v>2.4700000000000002</v>
       </c>
-      <c r="H20">
-        <v>2.57</v>
-      </c>
-      <c r="I20">
+      <c r="H21">
         <v>2.75</v>
       </c>
-      <c r="J20">
+      <c r="I21">
         <v>994.88</v>
       </c>
-      <c r="K20">
+      <c r="J21">
         <v>992.39</v>
       </c>
-      <c r="L20">
-        <v>992.13</v>
-      </c>
-      <c r="M20">
+      <c r="K21">
         <v>991.22</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A21" t="s">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A22" t="s">
         <v>20</v>
       </c>
-      <c r="B21">
+      <c r="B22">
         <v>9</v>
       </c>
-      <c r="C21">
+      <c r="C22">
         <v>92</v>
       </c>
-      <c r="D21">
+      <c r="D22">
         <v>10.220000000000001</v>
       </c>
-      <c r="E21">
+      <c r="E22">
         <v>6</v>
       </c>
-      <c r="F21">
+      <c r="F22">
         <v>3.16</v>
       </c>
-      <c r="G21">
+      <c r="G22">
         <v>3.36</v>
       </c>
-      <c r="H21">
-        <v>3.33</v>
-      </c>
-      <c r="I21">
+      <c r="H22">
         <v>3.49</v>
       </c>
-      <c r="J21">
+      <c r="I22">
         <v>988.35</v>
       </c>
-      <c r="K21">
+      <c r="J22">
         <v>986.33</v>
       </c>
-      <c r="L21">
-        <v>986.62</v>
-      </c>
-      <c r="M21">
+      <c r="K22">
         <v>985.02</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A22" t="s">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A23" t="s">
         <v>21</v>
       </c>
-      <c r="B22">
+      <c r="B23">
         <v>62</v>
       </c>
-      <c r="C22">
+      <c r="C23">
         <v>371</v>
       </c>
-      <c r="D22">
+      <c r="D23">
         <v>5.98</v>
       </c>
-      <c r="E22">
+      <c r="E23">
         <v>104</v>
       </c>
-      <c r="F22">
+      <c r="F23">
         <v>1.44</v>
       </c>
-      <c r="G22">
+      <c r="G23">
         <v>2.48</v>
       </c>
-      <c r="H22">
+      <c r="H23">
+        <v>2.85</v>
+      </c>
+      <c r="I23">
+        <v>994.91</v>
+      </c>
+      <c r="J23">
+        <v>991.57</v>
+      </c>
+      <c r="K23">
+        <v>989.77</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A24" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>40</v>
+      </c>
+      <c r="C24">
+        <v>246</v>
+      </c>
+      <c r="D24">
+        <v>6.15</v>
+      </c>
+      <c r="E24">
+        <v>70</v>
+      </c>
+      <c r="F24">
+        <v>2</v>
+      </c>
+      <c r="G24">
+        <v>2.84</v>
+      </c>
+      <c r="H24">
+        <v>3.11</v>
+      </c>
+      <c r="I24">
+        <v>993.09</v>
+      </c>
+      <c r="J24">
+        <v>990.05</v>
+      </c>
+      <c r="K24">
+        <v>988.84</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>82</v>
+      </c>
+      <c r="C25">
+        <v>348</v>
+      </c>
+      <c r="D25">
+        <v>4.24</v>
+      </c>
+      <c r="E25">
+        <v>95</v>
+      </c>
+      <c r="F25">
+        <v>1.86</v>
+      </c>
+      <c r="G25">
+        <v>2.88</v>
+      </c>
+      <c r="H25">
+        <v>3.28</v>
+      </c>
+      <c r="I25">
+        <v>994.68</v>
+      </c>
+      <c r="J25">
+        <v>989.63</v>
+      </c>
+      <c r="K25">
+        <v>987.08</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>73</v>
+      </c>
+      <c r="C26">
+        <v>342</v>
+      </c>
+      <c r="D26">
+        <v>4.68</v>
+      </c>
+      <c r="E26">
+        <v>127</v>
+      </c>
+      <c r="F26">
+        <v>2.09</v>
+      </c>
+      <c r="G26">
+        <v>2.93</v>
+      </c>
+      <c r="H26">
+        <v>3.15</v>
+      </c>
+      <c r="I26">
+        <v>994.54</v>
+      </c>
+      <c r="J26">
+        <v>989.75</v>
+      </c>
+      <c r="K26">
+        <v>987.85</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>55</v>
+      </c>
+      <c r="C27">
+        <v>217</v>
+      </c>
+      <c r="D27">
+        <v>3.95</v>
+      </c>
+      <c r="E27">
+        <v>59</v>
+      </c>
+      <c r="F27">
+        <v>1.41</v>
+      </c>
+      <c r="G27">
+        <v>2.91</v>
+      </c>
+      <c r="H27">
+        <v>3.17</v>
+      </c>
+      <c r="I27">
+        <v>995.62</v>
+      </c>
+      <c r="J27">
+        <v>989.58</v>
+      </c>
+      <c r="K27">
+        <v>987.71</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A28" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>32</v>
+      </c>
+      <c r="C28">
+        <v>136</v>
+      </c>
+      <c r="D28">
+        <v>4.25</v>
+      </c>
+      <c r="E28">
+        <v>61</v>
+      </c>
+      <c r="F28">
+        <v>1.63</v>
+      </c>
+      <c r="G28">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="H28">
+        <v>2.75</v>
+      </c>
+      <c r="I28">
+        <v>996.8</v>
+      </c>
+      <c r="J28">
+        <v>992.8</v>
+      </c>
+      <c r="K28">
+        <v>991.23</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A29" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>43</v>
+      </c>
+      <c r="C29">
+        <v>172</v>
+      </c>
+      <c r="D29">
+        <v>4</v>
+      </c>
+      <c r="E29">
+        <v>53</v>
+      </c>
+      <c r="F29">
+        <v>2.41</v>
+      </c>
+      <c r="G29">
+        <v>3.17</v>
+      </c>
+      <c r="H29">
+        <v>3.43</v>
+      </c>
+      <c r="I29">
+        <v>992.94</v>
+      </c>
+      <c r="J29">
+        <v>987.77</v>
+      </c>
+      <c r="K29">
+        <v>985.61</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A30" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>26</v>
+      </c>
+      <c r="C30">
+        <v>273</v>
+      </c>
+      <c r="D30">
+        <v>10.5</v>
+      </c>
+      <c r="E30">
+        <v>54</v>
+      </c>
+      <c r="F30">
+        <v>2.93</v>
+      </c>
+      <c r="G30">
+        <v>3.27</v>
+      </c>
+      <c r="H30">
+        <v>3.39</v>
+      </c>
+      <c r="I30">
+        <v>990.3</v>
+      </c>
+      <c r="J30">
+        <v>987.18</v>
+      </c>
+      <c r="K30">
+        <v>986.07</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A31" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>44</v>
+      </c>
+      <c r="C31">
+        <v>199</v>
+      </c>
+      <c r="D31">
+        <v>4.5199999999999996</v>
+      </c>
+      <c r="E31">
+        <v>57</v>
+      </c>
+      <c r="F31">
+        <v>2</v>
+      </c>
+      <c r="G31">
+        <v>3.31</v>
+      </c>
+      <c r="H31">
+        <v>3.59</v>
+      </c>
+      <c r="I31">
+        <v>991.84</v>
+      </c>
+      <c r="J31">
+        <v>986.09</v>
+      </c>
+      <c r="K31">
+        <v>984.06</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A32" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>15</v>
+      </c>
+      <c r="C32">
+        <v>93</v>
+      </c>
+      <c r="D32">
+        <v>6.2</v>
+      </c>
+      <c r="E32">
+        <v>15</v>
+      </c>
+      <c r="F32">
         <v>2.56</v>
       </c>
-      <c r="I22">
-        <v>2.85</v>
-      </c>
-      <c r="J22">
-        <v>994.91</v>
-      </c>
-      <c r="K22">
-        <v>991.57</v>
-      </c>
-      <c r="L22">
-        <v>991.86</v>
-      </c>
-      <c r="M22">
-        <v>989.77</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A23" t="s">
+      <c r="G32">
+        <v>3.24</v>
+      </c>
+      <c r="H32">
+        <v>3.54</v>
+      </c>
+      <c r="I32">
+        <v>992.19</v>
+      </c>
+      <c r="J32">
+        <v>987.14</v>
+      </c>
+      <c r="K32">
+        <v>984.51</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A33" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>63</v>
+      </c>
+      <c r="C33">
+        <v>260</v>
+      </c>
+      <c r="D33">
+        <v>4.13</v>
+      </c>
+      <c r="E33">
+        <v>81</v>
+      </c>
+      <c r="F33">
+        <v>2</v>
+      </c>
+      <c r="G33">
+        <v>3.2</v>
+      </c>
+      <c r="H33">
+        <v>3.6</v>
+      </c>
+      <c r="I33">
+        <v>994.1</v>
+      </c>
+      <c r="J33">
+        <v>986.92</v>
+      </c>
+      <c r="K33">
+        <v>982.88</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A34" t="s">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>16</v>
+      </c>
+      <c r="C34">
+        <v>92</v>
+      </c>
+      <c r="D34">
+        <v>5.75</v>
+      </c>
+      <c r="E34">
         <v>22</v>
       </c>
-      <c r="B23">
-        <v>40</v>
-      </c>
-      <c r="C23">
-        <v>246</v>
-      </c>
-      <c r="D23">
-        <v>6.15</v>
-      </c>
-      <c r="E23">
-        <v>70</v>
-      </c>
-      <c r="F23">
-        <v>2</v>
-      </c>
-      <c r="G23">
-        <v>2.84</v>
-      </c>
-      <c r="H23">
-        <v>2.92</v>
-      </c>
-      <c r="I23">
-        <v>3.11</v>
-      </c>
-      <c r="J23">
-        <v>993.09</v>
-      </c>
-      <c r="K23">
-        <v>990.05</v>
-      </c>
-      <c r="L23">
-        <v>990.18</v>
-      </c>
-      <c r="M23">
-        <v>988.84</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A24" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24">
-        <v>82</v>
-      </c>
-      <c r="C24">
-        <v>348</v>
-      </c>
-      <c r="D24">
-        <v>4.24</v>
-      </c>
-      <c r="E24">
-        <v>95</v>
-      </c>
-      <c r="F24">
-        <v>1.86</v>
-      </c>
-      <c r="G24">
-        <v>2.88</v>
-      </c>
-      <c r="H24">
-        <v>2.84</v>
-      </c>
-      <c r="I24">
-        <v>3.28</v>
-      </c>
-      <c r="J24">
-        <v>994.68</v>
-      </c>
-      <c r="K24">
-        <v>989.63</v>
-      </c>
-      <c r="L24">
-        <v>990.38</v>
-      </c>
-      <c r="M24">
-        <v>987.08</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25">
-        <v>73</v>
-      </c>
-      <c r="C25">
-        <v>342</v>
-      </c>
-      <c r="D25">
-        <v>4.68</v>
-      </c>
-      <c r="E25">
-        <v>127</v>
-      </c>
-      <c r="F25">
-        <v>2.09</v>
-      </c>
-      <c r="G25">
-        <v>2.93</v>
-      </c>
-      <c r="H25">
-        <v>3</v>
-      </c>
-      <c r="I25">
-        <v>3.15</v>
-      </c>
-      <c r="J25">
-        <v>994.54</v>
-      </c>
-      <c r="K25">
-        <v>989.75</v>
-      </c>
-      <c r="L25">
-        <v>989.76</v>
-      </c>
-      <c r="M25">
-        <v>987.85</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A26" t="s">
+      <c r="F34">
+        <v>2.36</v>
+      </c>
+      <c r="G34">
+        <v>3.07</v>
+      </c>
+      <c r="H34">
+        <v>3.29</v>
+      </c>
+      <c r="I34">
+        <v>993.15</v>
+      </c>
+      <c r="J34">
+        <v>988.79</v>
+      </c>
+      <c r="K34">
+        <v>987.05</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A35" t="s">
+        <v>33</v>
+      </c>
+      <c r="B35">
         <v>25</v>
       </c>
-      <c r="B26">
-        <v>55</v>
-      </c>
-      <c r="C26">
-        <v>217</v>
-      </c>
-      <c r="D26">
-        <v>3.95</v>
-      </c>
-      <c r="E26">
-        <v>59</v>
-      </c>
-      <c r="F26">
-        <v>1.41</v>
-      </c>
-      <c r="G26">
-        <v>2.91</v>
-      </c>
-      <c r="H26">
-        <v>3.02</v>
-      </c>
-      <c r="I26">
-        <v>3.17</v>
-      </c>
-      <c r="J26">
-        <v>995.62</v>
-      </c>
-      <c r="K26">
-        <v>989.58</v>
-      </c>
-      <c r="L26">
-        <v>989.52</v>
-      </c>
-      <c r="M26">
-        <v>987.71</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A27" t="s">
-        <v>26</v>
-      </c>
-      <c r="B27">
-        <v>32</v>
-      </c>
-      <c r="C27">
-        <v>136</v>
-      </c>
-      <c r="D27">
-        <v>4.25</v>
-      </c>
-      <c r="E27">
-        <v>61</v>
-      </c>
-      <c r="F27">
-        <v>1.63</v>
-      </c>
-      <c r="G27">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="H27">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="I27">
-        <v>2.75</v>
-      </c>
-      <c r="J27">
-        <v>996.8</v>
-      </c>
-      <c r="K27">
-        <v>992.8</v>
-      </c>
-      <c r="L27">
-        <v>992.81</v>
-      </c>
-      <c r="M27">
-        <v>991.23</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A28" t="s">
-        <v>27</v>
-      </c>
-      <c r="B28">
-        <v>43</v>
-      </c>
-      <c r="C28">
-        <v>172</v>
-      </c>
-      <c r="D28">
-        <v>4</v>
-      </c>
-      <c r="E28">
-        <v>53</v>
-      </c>
-      <c r="F28">
-        <v>2.41</v>
-      </c>
-      <c r="G28">
-        <v>3.17</v>
-      </c>
-      <c r="H28">
-        <v>3.21</v>
-      </c>
-      <c r="I28">
-        <v>3.43</v>
-      </c>
-      <c r="J28">
-        <v>992.94</v>
-      </c>
-      <c r="K28">
-        <v>987.77</v>
-      </c>
-      <c r="L28">
-        <v>987.8</v>
-      </c>
-      <c r="M28">
-        <v>985.61</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A29" t="s">
-        <v>28</v>
-      </c>
-      <c r="B29">
-        <v>26</v>
-      </c>
-      <c r="C29">
-        <v>273</v>
-      </c>
-      <c r="D29">
-        <v>10.5</v>
-      </c>
-      <c r="E29">
-        <v>54</v>
-      </c>
-      <c r="F29">
-        <v>2.93</v>
-      </c>
-      <c r="G29">
-        <v>3.27</v>
-      </c>
-      <c r="H29">
-        <v>3.33</v>
-      </c>
-      <c r="I29">
-        <v>3.39</v>
-      </c>
-      <c r="J29">
-        <v>990.3</v>
-      </c>
-      <c r="K29">
-        <v>987.18</v>
-      </c>
-      <c r="L29">
-        <v>986.67</v>
-      </c>
-      <c r="M29">
-        <v>986.07</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A30" t="s">
-        <v>29</v>
-      </c>
-      <c r="B30">
-        <v>44</v>
-      </c>
-      <c r="C30">
-        <v>199</v>
-      </c>
-      <c r="D30">
-        <v>4.5199999999999996</v>
-      </c>
-      <c r="E30">
-        <v>57</v>
-      </c>
-      <c r="F30">
-        <v>2</v>
-      </c>
-      <c r="G30">
-        <v>3.31</v>
-      </c>
-      <c r="H30">
-        <v>3.45</v>
-      </c>
-      <c r="I30">
-        <v>3.59</v>
-      </c>
-      <c r="J30">
-        <v>991.84</v>
-      </c>
-      <c r="K30">
-        <v>986.09</v>
-      </c>
-      <c r="L30">
-        <v>985.25</v>
-      </c>
-      <c r="M30">
-        <v>984.06</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A31" t="s">
-        <v>30</v>
-      </c>
-      <c r="B31">
-        <v>15</v>
-      </c>
-      <c r="C31">
-        <v>93</v>
-      </c>
-      <c r="D31">
-        <v>6.2</v>
-      </c>
-      <c r="E31">
-        <v>15</v>
-      </c>
-      <c r="F31">
-        <v>2.56</v>
-      </c>
-      <c r="G31">
-        <v>3.24</v>
-      </c>
-      <c r="H31">
-        <v>3.29</v>
-      </c>
-      <c r="I31">
-        <v>3.54</v>
-      </c>
-      <c r="J31">
-        <v>992.19</v>
-      </c>
-      <c r="K31">
-        <v>987.14</v>
-      </c>
-      <c r="L31">
-        <v>987.01</v>
-      </c>
-      <c r="M31">
-        <v>984.51</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A32" t="s">
-        <v>31</v>
-      </c>
-      <c r="B32">
-        <v>63</v>
-      </c>
-      <c r="C32">
-        <v>260</v>
-      </c>
-      <c r="D32">
-        <v>4.13</v>
-      </c>
-      <c r="E32">
-        <v>81</v>
-      </c>
-      <c r="F32">
-        <v>2</v>
-      </c>
-      <c r="G32">
-        <v>3.2</v>
-      </c>
-      <c r="H32">
-        <v>3.23</v>
-      </c>
-      <c r="I32">
-        <v>3.6</v>
-      </c>
-      <c r="J32">
-        <v>994.1</v>
-      </c>
-      <c r="K32">
-        <v>986.92</v>
-      </c>
-      <c r="L32">
-        <v>987.2</v>
-      </c>
-      <c r="M32">
-        <v>982.88</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A33" t="s">
-        <v>32</v>
-      </c>
-      <c r="B33">
-        <v>16</v>
-      </c>
-      <c r="C33">
-        <v>92</v>
-      </c>
-      <c r="D33">
-        <v>5.75</v>
-      </c>
-      <c r="E33">
-        <v>22</v>
-      </c>
-      <c r="F33">
-        <v>2.36</v>
-      </c>
-      <c r="G33">
-        <v>3.07</v>
-      </c>
-      <c r="H33">
-        <v>3.06</v>
-      </c>
-      <c r="I33">
-        <v>3.29</v>
-      </c>
-      <c r="J33">
-        <v>993.15</v>
-      </c>
-      <c r="K33">
-        <v>988.79</v>
-      </c>
-      <c r="L33">
-        <v>989.34</v>
-      </c>
-      <c r="M33">
-        <v>987.05</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A34" t="s">
-        <v>33</v>
-      </c>
-      <c r="B34">
-        <v>25</v>
-      </c>
-      <c r="C34">
+      <c r="C35">
         <v>122</v>
       </c>
-      <c r="D34">
+      <c r="D35">
         <v>4.88</v>
       </c>
-      <c r="E34">
+      <c r="E35">
         <v>21</v>
-      </c>
-      <c r="F34">
-        <v>2</v>
-      </c>
-      <c r="G34">
-        <v>3.44</v>
-      </c>
-      <c r="H34">
-        <v>3.44</v>
-      </c>
-      <c r="I34">
-        <v>3.75</v>
-      </c>
-      <c r="J34">
-        <v>990.23</v>
-      </c>
-      <c r="K34">
-        <v>985.06</v>
-      </c>
-      <c r="L34">
-        <v>985.51</v>
-      </c>
-      <c r="M34">
-        <v>982.41</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A35" t="s">
-        <v>34</v>
-      </c>
-      <c r="B35">
-        <v>12</v>
-      </c>
-      <c r="C35">
-        <v>161</v>
-      </c>
-      <c r="D35">
-        <v>13.42</v>
-      </c>
-      <c r="E35">
-        <v>14</v>
       </c>
       <c r="F35">
         <v>2</v>
       </c>
       <c r="G35">
+        <v>3.44</v>
+      </c>
+      <c r="H35">
+        <v>3.75</v>
+      </c>
+      <c r="I35">
+        <v>990.23</v>
+      </c>
+      <c r="J35">
+        <v>985.06</v>
+      </c>
+      <c r="K35">
+        <v>982.41</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A36" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <v>12</v>
+      </c>
+      <c r="C36">
+        <v>161</v>
+      </c>
+      <c r="D36">
+        <v>13.42</v>
+      </c>
+      <c r="E36">
+        <v>14</v>
+      </c>
+      <c r="F36">
+        <v>2</v>
+      </c>
+      <c r="G36">
         <v>3.39</v>
       </c>
-      <c r="H35">
-        <v>3.51</v>
-      </c>
-      <c r="I35">
+      <c r="H36">
         <v>3.67</v>
       </c>
-      <c r="J35">
+      <c r="I36">
         <v>989</v>
       </c>
-      <c r="K35">
+      <c r="J36">
         <v>985.07</v>
       </c>
-      <c r="L35">
-        <v>984.85</v>
-      </c>
-      <c r="M35">
+      <c r="K36">
         <v>983.23</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A36" t="s">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A37" t="s">
         <v>35</v>
       </c>
-      <c r="B36">
+      <c r="B37">
         <v>32</v>
       </c>
-      <c r="C36">
+      <c r="C37">
         <v>282</v>
       </c>
-      <c r="D36">
+      <c r="D37">
         <v>8.81</v>
       </c>
-      <c r="E36">
+      <c r="E37">
         <v>42</v>
       </c>
-      <c r="F36">
+      <c r="F37">
         <v>2.11</v>
       </c>
-      <c r="G36">
+      <c r="G37">
         <v>2.91</v>
       </c>
-      <c r="H36">
-        <v>2.93</v>
-      </c>
-      <c r="I36">
+      <c r="H37">
         <v>3.2</v>
       </c>
-      <c r="J36">
+      <c r="I37">
         <v>994.43</v>
       </c>
-      <c r="K36">
+      <c r="J37">
         <v>989.98</v>
       </c>
-      <c r="L36">
-        <v>990.31</v>
-      </c>
-      <c r="M36">
+      <c r="K37">
         <v>987.94</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A37" t="s">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A38" t="s">
         <v>36</v>
       </c>
-      <c r="B37">
+      <c r="B38">
         <v>15</v>
       </c>
-      <c r="C37">
+      <c r="C38">
         <v>61</v>
       </c>
-      <c r="D37">
+      <c r="D38">
         <v>4.07</v>
       </c>
-      <c r="E37">
+      <c r="E38">
         <v>23</v>
       </c>
-      <c r="F37">
+      <c r="F38">
         <v>1.9</v>
       </c>
-      <c r="G37">
+      <c r="G38">
         <v>2.39</v>
       </c>
-      <c r="H37">
-        <v>2.34</v>
-      </c>
-      <c r="I37">
+      <c r="H38">
         <v>2.68</v>
       </c>
-      <c r="J37">
+      <c r="I38">
         <v>995.49</v>
       </c>
-      <c r="K37">
+      <c r="J38">
         <v>993.02</v>
       </c>
-      <c r="L37">
-        <v>993.25</v>
-      </c>
-      <c r="M37">
+      <c r="K38">
         <v>991.56</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A38" t="s">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A39" t="s">
         <v>37</v>
-      </c>
-      <c r="B38">
-        <v>34</v>
-      </c>
-      <c r="C38">
-        <v>214</v>
-      </c>
-      <c r="D38">
-        <v>6.29</v>
-      </c>
-      <c r="E38">
-        <v>42</v>
-      </c>
-      <c r="F38">
-        <v>2</v>
-      </c>
-      <c r="G38">
-        <v>3.53</v>
-      </c>
-      <c r="H38">
-        <v>3.77</v>
-      </c>
-      <c r="I38">
-        <v>3.84</v>
-      </c>
-      <c r="J38">
-        <v>991.76</v>
-      </c>
-      <c r="K38">
-        <v>983.5</v>
-      </c>
-      <c r="L38">
-        <v>982.27</v>
-      </c>
-      <c r="M38">
-        <v>981.54</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A39" t="s">
-        <v>38</v>
       </c>
       <c r="B39">
         <v>34</v>
       </c>
       <c r="C39">
-        <v>170</v>
+        <v>214</v>
       </c>
       <c r="D39">
-        <v>5</v>
+        <v>6.29</v>
       </c>
       <c r="E39">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F39">
         <v>2</v>
       </c>
       <c r="G39">
+        <v>3.53</v>
+      </c>
+      <c r="H39">
+        <v>3.84</v>
+      </c>
+      <c r="I39">
+        <v>991.76</v>
+      </c>
+      <c r="J39">
+        <v>983.5</v>
+      </c>
+      <c r="K39">
+        <v>981.54</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A40" t="s">
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <v>34</v>
+      </c>
+      <c r="C40">
+        <v>170</v>
+      </c>
+      <c r="D40">
+        <v>5</v>
+      </c>
+      <c r="E40">
+        <v>39</v>
+      </c>
+      <c r="F40">
+        <v>2</v>
+      </c>
+      <c r="G40">
         <v>3.26</v>
       </c>
-      <c r="H39">
-        <v>3.39</v>
-      </c>
-      <c r="I39">
+      <c r="H40">
         <v>3.66</v>
       </c>
-      <c r="J39">
+      <c r="I40">
         <v>994.03</v>
       </c>
-      <c r="K39">
+      <c r="J40">
         <v>986.31</v>
       </c>
-      <c r="L39">
-        <v>985.73</v>
-      </c>
-      <c r="M39">
+      <c r="K40">
         <v>983.39</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A40" t="s">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A41" t="s">
         <v>39</v>
       </c>
-      <c r="B40">
+      <c r="B41">
         <v>11</v>
       </c>
-      <c r="C40">
+      <c r="C41">
         <v>50</v>
       </c>
-      <c r="D40">
+      <c r="D41">
         <v>4.55</v>
       </c>
-      <c r="E40">
+      <c r="E41">
         <v>10</v>
       </c>
-      <c r="F40">
+      <c r="F41">
         <v>1.51</v>
       </c>
-      <c r="G40">
+      <c r="G41">
         <v>2.1800000000000002</v>
       </c>
-      <c r="H40">
-        <v>2</v>
-      </c>
-      <c r="I40">
+      <c r="H41">
         <v>2.8</v>
       </c>
-      <c r="J40">
+      <c r="I41">
         <v>997.38</v>
       </c>
-      <c r="K40">
+      <c r="J41">
         <v>991.95</v>
       </c>
-      <c r="L40">
-        <v>990.95</v>
-      </c>
-      <c r="M40">
+      <c r="K41">
         <v>989</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A41" t="s">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A42" t="s">
         <v>40</v>
       </c>
-      <c r="B41">
+      <c r="B42">
         <v>1</v>
       </c>
-      <c r="C41">
+      <c r="C42">
         <v>9</v>
       </c>
-      <c r="D41">
+      <c r="D42">
         <v>9</v>
       </c>
-      <c r="E41">
+      <c r="E42">
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A42" t="s">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A43" t="s">
         <v>41</v>
       </c>
-      <c r="B42">
+      <c r="B43">
         <v>33</v>
       </c>
-      <c r="C42">
+      <c r="C43">
         <v>230</v>
       </c>
-      <c r="D42">
+      <c r="D43">
         <v>6.97</v>
       </c>
-      <c r="E42">
+      <c r="E43">
         <v>42</v>
-      </c>
-      <c r="F42">
-        <v>2</v>
-      </c>
-      <c r="G42">
-        <v>3.2</v>
-      </c>
-      <c r="H42">
-        <v>3.35</v>
-      </c>
-      <c r="I42">
-        <v>3.44</v>
-      </c>
-      <c r="J42">
-        <v>990.38</v>
-      </c>
-      <c r="K42">
-        <v>987.2</v>
-      </c>
-      <c r="L42">
-        <v>986.49</v>
-      </c>
-      <c r="M42">
-        <v>985.53</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A43" t="s">
-        <v>42</v>
-      </c>
-      <c r="B43">
-        <v>17</v>
-      </c>
-      <c r="C43">
-        <v>75</v>
-      </c>
-      <c r="D43">
-        <v>4.41</v>
-      </c>
-      <c r="E43">
-        <v>8</v>
       </c>
       <c r="F43">
         <v>2</v>
@@ -2807,559 +2613,511 @@
         <v>3.2</v>
       </c>
       <c r="H43">
-        <v>3.24</v>
+        <v>3.44</v>
       </c>
       <c r="I43">
+        <v>990.38</v>
+      </c>
+      <c r="J43">
+        <v>987.2</v>
+      </c>
+      <c r="K43">
+        <v>985.53</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A44" t="s">
+        <v>42</v>
+      </c>
+      <c r="B44">
+        <v>17</v>
+      </c>
+      <c r="C44">
+        <v>75</v>
+      </c>
+      <c r="D44">
+        <v>4.41</v>
+      </c>
+      <c r="E44">
+        <v>8</v>
+      </c>
+      <c r="F44">
+        <v>2</v>
+      </c>
+      <c r="G44">
+        <v>3.2</v>
+      </c>
+      <c r="H44">
         <v>3.59</v>
       </c>
-      <c r="J43">
+      <c r="I44">
         <v>992.69</v>
       </c>
-      <c r="K43">
+      <c r="J44">
         <v>987.08</v>
       </c>
-      <c r="L43">
-        <v>987.53</v>
-      </c>
-      <c r="M43">
+      <c r="K44">
         <v>984.08</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A44" t="s">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A45" t="s">
         <v>43</v>
-      </c>
-      <c r="B44">
-        <v>18</v>
-      </c>
-      <c r="C44">
-        <v>88</v>
-      </c>
-      <c r="D44">
-        <v>4.8899999999999997</v>
-      </c>
-      <c r="E44">
-        <v>25</v>
-      </c>
-      <c r="F44">
-        <v>3.13</v>
-      </c>
-      <c r="G44">
-        <v>3.72</v>
-      </c>
-      <c r="H44">
-        <v>3.73</v>
-      </c>
-      <c r="I44">
-        <v>3.93</v>
-      </c>
-      <c r="J44">
-        <v>988.62</v>
-      </c>
-      <c r="K44">
-        <v>982.71</v>
-      </c>
-      <c r="L44">
-        <v>982.69</v>
-      </c>
-      <c r="M44">
-        <v>980.63</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A45" t="s">
-        <v>44</v>
       </c>
       <c r="B45">
         <v>18</v>
       </c>
       <c r="C45">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D45">
-        <v>5.0599999999999996</v>
+        <v>4.8899999999999997</v>
       </c>
       <c r="E45">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F45">
-        <v>2.92</v>
+        <v>3.13</v>
       </c>
       <c r="G45">
-        <v>3.78</v>
+        <v>3.72</v>
       </c>
       <c r="H45">
-        <v>3.76</v>
+        <v>3.93</v>
       </c>
       <c r="I45">
-        <v>4.03</v>
+        <v>988.62</v>
       </c>
       <c r="J45">
-        <v>990.38</v>
+        <v>982.71</v>
       </c>
       <c r="K45">
-        <v>982.16</v>
-      </c>
-      <c r="L45">
-        <v>982.3</v>
-      </c>
-      <c r="M45">
-        <v>979.63</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.4">
+        <v>980.63</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B46">
         <v>18</v>
       </c>
       <c r="C46">
+        <v>91</v>
+      </c>
+      <c r="D46">
+        <v>5.0599999999999996</v>
+      </c>
+      <c r="E46">
+        <v>20</v>
+      </c>
+      <c r="F46">
+        <v>2.92</v>
+      </c>
+      <c r="G46">
+        <v>3.78</v>
+      </c>
+      <c r="H46">
+        <v>4.03</v>
+      </c>
+      <c r="I46">
+        <v>990.38</v>
+      </c>
+      <c r="J46">
+        <v>982.16</v>
+      </c>
+      <c r="K46">
+        <v>979.63</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A47" t="s">
+        <v>45</v>
+      </c>
+      <c r="B47">
+        <v>18</v>
+      </c>
+      <c r="C47">
         <v>80</v>
       </c>
-      <c r="D46">
+      <c r="D47">
         <v>4.4400000000000004</v>
       </c>
-      <c r="E46">
+      <c r="E47">
         <v>19</v>
       </c>
-      <c r="F46">
+      <c r="F47">
         <v>2</v>
       </c>
-      <c r="G46">
+      <c r="G47">
         <v>2.97</v>
       </c>
-      <c r="H46">
-        <v>3.09</v>
-      </c>
-      <c r="I46">
+      <c r="H47">
         <v>3.23</v>
       </c>
-      <c r="J46">
+      <c r="I47">
         <v>991.7</v>
       </c>
-      <c r="K46">
+      <c r="J47">
         <v>988.87</v>
       </c>
-      <c r="L46">
-        <v>988.49</v>
-      </c>
-      <c r="M46">
+      <c r="K47">
         <v>987.6</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A47" t="s">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A48" t="s">
         <v>46</v>
       </c>
-      <c r="B47">
+      <c r="B48">
         <v>17</v>
       </c>
-      <c r="C47">
+      <c r="C48">
         <v>86</v>
       </c>
-      <c r="D47">
+      <c r="D48">
         <v>5.0599999999999996</v>
       </c>
-      <c r="E47">
+      <c r="E48">
         <v>15</v>
       </c>
-      <c r="F47">
+      <c r="F48">
         <v>3.34</v>
       </c>
-      <c r="G47">
+      <c r="G48">
         <v>3.57</v>
       </c>
-      <c r="H47">
-        <v>3.53</v>
-      </c>
-      <c r="I47">
+      <c r="H48">
         <v>3.7</v>
       </c>
-      <c r="J47">
+      <c r="I48">
         <v>986.59</v>
       </c>
-      <c r="K47">
+      <c r="J48">
         <v>984.23</v>
       </c>
-      <c r="L47">
-        <v>984.68</v>
-      </c>
-      <c r="M47">
+      <c r="K48">
         <v>982.99</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A48" t="s">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A49" t="s">
         <v>47</v>
       </c>
-      <c r="B48">
+      <c r="B49">
         <v>18</v>
       </c>
-      <c r="C48">
+      <c r="C49">
         <v>101</v>
       </c>
-      <c r="D48">
+      <c r="D49">
         <v>5.61</v>
       </c>
-      <c r="E48">
+      <c r="E49">
         <v>16</v>
       </c>
-      <c r="F48">
+      <c r="F49">
         <v>2</v>
       </c>
-      <c r="G48">
+      <c r="G49">
         <v>3.26</v>
       </c>
-      <c r="H48">
-        <v>3.46</v>
-      </c>
-      <c r="I48">
+      <c r="H49">
         <v>3.63</v>
       </c>
-      <c r="J48">
+      <c r="I49">
         <v>992.02</v>
       </c>
-      <c r="K48">
+      <c r="J49">
         <v>985.97</v>
       </c>
-      <c r="L48">
-        <v>985.35</v>
-      </c>
-      <c r="M48">
+      <c r="K49">
         <v>983.69</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A49" t="s">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A50" t="s">
         <v>48</v>
       </c>
-      <c r="B49">
+      <c r="B50">
         <v>12</v>
       </c>
-      <c r="C49">
+      <c r="C50">
         <v>98</v>
       </c>
-      <c r="D49">
+      <c r="D50">
         <v>8.17</v>
       </c>
-      <c r="E49">
+      <c r="E50">
         <v>15</v>
       </c>
-      <c r="F49">
+      <c r="F50">
         <v>3.13</v>
       </c>
-      <c r="G49">
+      <c r="G50">
         <v>3.31</v>
       </c>
-      <c r="H49">
-        <v>3.32</v>
-      </c>
-      <c r="I49">
+      <c r="H50">
         <v>3.36</v>
       </c>
-      <c r="J49">
+      <c r="I50">
         <v>988.64</v>
       </c>
-      <c r="K49">
+      <c r="J50">
         <v>986.86</v>
       </c>
-      <c r="L49">
-        <v>986.78</v>
-      </c>
-      <c r="M49">
+      <c r="K50">
         <v>986.38</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A50" t="s">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A51" t="s">
         <v>49</v>
-      </c>
-      <c r="B50">
-        <v>23</v>
-      </c>
-      <c r="C50">
-        <v>169</v>
-      </c>
-      <c r="D50">
-        <v>7.35</v>
-      </c>
-      <c r="E50">
-        <v>40</v>
-      </c>
-      <c r="F50">
-        <v>2</v>
-      </c>
-      <c r="G50">
-        <v>2.79</v>
-      </c>
-      <c r="H50">
-        <v>2.9</v>
-      </c>
-      <c r="I50">
-        <v>3.07</v>
-      </c>
-      <c r="J50">
-        <v>994.25</v>
-      </c>
-      <c r="K50">
-        <v>990.34</v>
-      </c>
-      <c r="L50">
-        <v>989.93</v>
-      </c>
-      <c r="M50">
-        <v>989.02</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A51" t="s">
-        <v>50</v>
       </c>
       <c r="B51">
         <v>23</v>
       </c>
       <c r="C51">
+        <v>169</v>
+      </c>
+      <c r="D51">
+        <v>7.35</v>
+      </c>
+      <c r="E51">
+        <v>40</v>
+      </c>
+      <c r="F51">
+        <v>2</v>
+      </c>
+      <c r="G51">
+        <v>2.79</v>
+      </c>
+      <c r="H51">
+        <v>3.07</v>
+      </c>
+      <c r="I51">
+        <v>994.25</v>
+      </c>
+      <c r="J51">
+        <v>990.34</v>
+      </c>
+      <c r="K51">
+        <v>989.02</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A52" t="s">
+        <v>50</v>
+      </c>
+      <c r="B52">
+        <v>23</v>
+      </c>
+      <c r="C52">
         <v>162</v>
       </c>
-      <c r="D51">
+      <c r="D52">
         <v>7.04</v>
       </c>
-      <c r="E51">
+      <c r="E52">
         <v>31</v>
       </c>
-      <c r="F51">
+      <c r="F52">
         <v>1.71</v>
       </c>
-      <c r="G51">
+      <c r="G52">
         <v>2.58</v>
       </c>
-      <c r="H51">
-        <v>2.7</v>
-      </c>
-      <c r="I51">
+      <c r="H52">
         <v>2.88</v>
       </c>
-      <c r="J51">
+      <c r="I52">
         <v>994.65</v>
       </c>
-      <c r="K51">
+      <c r="J52">
         <v>991.31</v>
       </c>
-      <c r="L51">
-        <v>991.32</v>
-      </c>
-      <c r="M51">
+      <c r="K52">
         <v>990.2</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A52" t="s">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A53" t="s">
         <v>51</v>
       </c>
-      <c r="B52">
+      <c r="B53">
         <v>18</v>
       </c>
-      <c r="C52">
+      <c r="C53">
         <v>71</v>
       </c>
-      <c r="D52">
+      <c r="D53">
         <v>3.94</v>
       </c>
-      <c r="E52">
+      <c r="E53">
         <v>14</v>
       </c>
-      <c r="F52">
+      <c r="F53">
         <v>2</v>
       </c>
-      <c r="G52">
+      <c r="G53">
         <v>3.28</v>
       </c>
-      <c r="H52">
-        <v>3.28</v>
-      </c>
-      <c r="I52">
+      <c r="H53">
         <v>4.01</v>
       </c>
-      <c r="J52">
+      <c r="I53">
         <v>994.49</v>
       </c>
-      <c r="K52">
+      <c r="J53">
         <v>985.49</v>
       </c>
-      <c r="L52">
-        <v>987.14</v>
-      </c>
-      <c r="M52">
+      <c r="K53">
         <v>979.81</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A53" t="s">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A54" t="s">
         <v>52</v>
       </c>
-      <c r="B53">
+      <c r="B54">
         <v>10</v>
       </c>
-      <c r="C53">
+      <c r="C54">
         <v>49</v>
       </c>
-      <c r="D53">
+      <c r="D54">
         <v>4.9000000000000004</v>
       </c>
-      <c r="E53">
+      <c r="E54">
         <v>9</v>
       </c>
-      <c r="F53">
+      <c r="F54">
         <v>2.98</v>
       </c>
-      <c r="G53">
+      <c r="G54">
         <v>3.32</v>
       </c>
-      <c r="H53">
+      <c r="H54">
+        <v>3.43</v>
+      </c>
+      <c r="I54">
+        <v>990.05</v>
+      </c>
+      <c r="J54">
+        <v>986.72</v>
+      </c>
+      <c r="K54">
+        <v>985.69</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A55" t="s">
+        <v>53</v>
+      </c>
+      <c r="B55">
+        <v>57</v>
+      </c>
+      <c r="C55">
+        <v>225</v>
+      </c>
+      <c r="D55">
+        <v>3.95</v>
+      </c>
+      <c r="E55">
+        <v>95</v>
+      </c>
+      <c r="F55">
+        <v>1.26</v>
+      </c>
+      <c r="G55">
+        <v>2.86</v>
+      </c>
+      <c r="H55">
         <v>3.35</v>
       </c>
-      <c r="I53">
-        <v>3.43</v>
-      </c>
-      <c r="J53">
-        <v>990.05</v>
-      </c>
-      <c r="K53">
-        <v>986.72</v>
-      </c>
-      <c r="L53">
-        <v>986.5</v>
-      </c>
-      <c r="M53">
-        <v>985.69</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A54" t="s">
+      <c r="I55">
+        <v>994.28</v>
+      </c>
+      <c r="J55">
+        <v>989.59</v>
+      </c>
+      <c r="K55">
+        <v>986.44</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A56" t="s">
+        <v>54</v>
+      </c>
+      <c r="B56">
+        <v>20</v>
+      </c>
+      <c r="C56">
+        <v>128</v>
+      </c>
+      <c r="D56">
+        <v>6.4</v>
+      </c>
+      <c r="E56">
+        <v>26</v>
+      </c>
+      <c r="F56">
+        <v>1.61</v>
+      </c>
+      <c r="G56">
+        <v>2.65</v>
+      </c>
+      <c r="H56">
+        <v>3.13</v>
+      </c>
+      <c r="I56">
+        <v>992.66</v>
+      </c>
+      <c r="J56">
+        <v>990.1</v>
+      </c>
+      <c r="K56">
+        <v>988.67</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A57" t="s">
+        <v>55</v>
+      </c>
+      <c r="B57">
         <v>53</v>
       </c>
-      <c r="B54">
-        <v>57</v>
-      </c>
-      <c r="C54">
-        <v>225</v>
-      </c>
-      <c r="D54">
-        <v>3.95</v>
-      </c>
-      <c r="E54">
-        <v>95</v>
-      </c>
-      <c r="F54">
-        <v>1.26</v>
-      </c>
-      <c r="G54">
-        <v>2.86</v>
-      </c>
-      <c r="H54">
-        <v>2.82</v>
-      </c>
-      <c r="I54">
-        <v>3.35</v>
-      </c>
-      <c r="J54">
-        <v>994.28</v>
-      </c>
-      <c r="K54">
-        <v>989.59</v>
-      </c>
-      <c r="L54">
-        <v>990.66</v>
-      </c>
-      <c r="M54">
-        <v>986.44</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A55" t="s">
-        <v>54</v>
-      </c>
-      <c r="B55">
-        <v>20</v>
-      </c>
-      <c r="C55">
-        <v>128</v>
-      </c>
-      <c r="D55">
-        <v>6.4</v>
-      </c>
-      <c r="E55">
-        <v>26</v>
-      </c>
-      <c r="F55">
-        <v>1.61</v>
-      </c>
-      <c r="G55">
-        <v>2.65</v>
-      </c>
-      <c r="H55">
-        <v>2.75</v>
-      </c>
-      <c r="I55">
-        <v>3.13</v>
-      </c>
-      <c r="J55">
-        <v>992.66</v>
-      </c>
-      <c r="K55">
-        <v>990.1</v>
-      </c>
-      <c r="L55">
-        <v>990.66</v>
-      </c>
-      <c r="M55">
-        <v>988.67</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A56" t="s">
-        <v>55</v>
-      </c>
-      <c r="B56">
-        <v>53</v>
-      </c>
-      <c r="C56">
+      <c r="C57">
         <v>340</v>
       </c>
-      <c r="D56">
+      <c r="D57">
         <v>6.42</v>
       </c>
-      <c r="E56">
+      <c r="E57">
         <v>70</v>
       </c>
-      <c r="F56">
+      <c r="F57">
         <v>1.75</v>
       </c>
-      <c r="G56">
+      <c r="G57">
         <v>2.5099999999999998</v>
       </c>
-      <c r="H56">
-        <v>2.5299999999999998</v>
-      </c>
-      <c r="I56">
+      <c r="H57">
         <v>2.76</v>
       </c>
-      <c r="J56">
+      <c r="I57">
         <v>996.24</v>
       </c>
-      <c r="K56">
+      <c r="J57">
         <v>992.44</v>
       </c>
-      <c r="L56">
-        <v>992.31</v>
-      </c>
-      <c r="M56">
+      <c r="K57">
         <v>991.17</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>